--- a/spliced/falling/2023-03-25_18-00-59/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-59/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0251981914043426</v>
+        <v>-0.0219911485910415</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0255036242306232</v>
+        <v>-0.0158824957907199</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0038179077673703</v>
+        <v>0.0395535230636596</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01328631862998</v>
+        <v>-0.0251981914043426</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0074830991216003</v>
+        <v>0.0255036242306232</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0119118718430399</v>
+        <v>-0.0038179077673703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.022754730656743</v>
+        <v>0.01328631862998</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2061670273542404</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06368270516395561</v>
+        <v>-0.0119118718430399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0487165041267871</v>
+        <v>-0.022754730656743</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2628247737884521</v>
+        <v>-0.2061670273542404</v>
       </c>
       <c r="C5" t="n">
-        <v>0.072998397052288</v>
+        <v>0.06368270516395561</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0171042270958423</v>
+        <v>-0.0487165041267871</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4222606122493744</v>
+        <v>-0.2628247737884521</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0635299831628799</v>
+        <v>0.072998397052288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0972802937030792</v>
+        <v>-0.0171042270958423</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4360050559043884</v>
+        <v>-0.4222606122493744</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2139555513858795</v>
+        <v>0.0635299831628799</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0091629782691597</v>
+        <v>0.0972802937030792</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0555887371301651</v>
+        <v>-0.4360050559043884</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3749185502529144</v>
+        <v>0.2139555513858795</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0091629782691597</v>
+        <v>-0.0091629782691597</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0584903471171855</v>
+        <v>0.0555887371301651</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1916589736938476</v>
+        <v>0.3749185502529144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.408974289894104</v>
+        <v>0.0091629782691597</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4970915913581848</v>
+        <v>0.0584903471171855</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3481931984424591</v>
+        <v>0.1916589736938476</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.9280570149421692</v>
+        <v>-0.408974289894104</v>
       </c>
       <c r="B11" t="n">
-        <v>2.348929643630981</v>
+        <v>0.4970915913581848</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.768275022506714</v>
+        <v>0.3481931984424591</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.9198103547096252</v>
+        <v>-0.9280570149421692</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2131919711828231</v>
+        <v>2.348929643630981</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3013092875480652</v>
+        <v>-3.768275022506714</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.151633739471436</v>
+        <v>-0.9198103547096252</v>
       </c>
       <c r="B13" t="n">
-        <v>-5.64531135559082</v>
+        <v>0.2131919711828231</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.316720008850098</v>
+        <v>0.3013092875480652</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.4346306324005127</v>
+        <v>1.151633739471436</v>
       </c>
       <c r="B14" t="n">
-        <v>7.040069103240967</v>
+        <v>-5.64531135559082</v>
       </c>
       <c r="C14" t="n">
-        <v>2.582127332687378</v>
+        <v>-1.316720008850098</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.09285151958465571</v>
+        <v>-0.4346306324005127</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7751879692077637</v>
+        <v>7.040069103240967</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1513418704271316</v>
+        <v>2.582127332687378</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.0221438650041818</v>
+        <v>0.09285151958465571</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.3016147017478943</v>
+        <v>0.7751879692077637</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1111774742603302</v>
+        <v>-0.1513418704271316</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3016147017478943</v>
+        <v>-0.0221438650041818</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2246456891298294</v>
+        <v>-0.3016147017478943</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0919352173805236</v>
+        <v>-0.1111774742603302</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0120645882561802</v>
+        <v>0.3016147017478943</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1030835136771202</v>
+        <v>0.2246456891298294</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1064432710409164</v>
+        <v>0.0919352173805236</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0125227374956011</v>
+        <v>-0.0120645882561802</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06261368840932841</v>
+        <v>0.1030835136771202</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0209221355617046</v>
+        <v>0.1064432710409164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0786489024758338</v>
+        <v>-0.0125227374956011</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0143553335219621</v>
+        <v>0.06261368840932841</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1611157059669494</v>
+        <v>-0.0209221355617046</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0029016099870204</v>
+        <v>-0.0786489024758338</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0401643887162208</v>
+        <v>-0.0143553335219621</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0038179077673703</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.0178678091615438</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0429132841527462</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.027030786499381</v>
+        <v>-0.1611157059669494</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-00-59/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-59/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0219911485910415</v>
+        <v>0.0542142912745475</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0158824957907199</v>
+        <v>-0.0145080499351024</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0395535230636596</v>
+        <v>0.0216857157647609</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0251981914043426</v>
+        <v>-0.0039706239476799</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0255036242306232</v>
+        <v>-0.0080939643085002</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0038179077673703</v>
+        <v>0.0329867228865623</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01328631862998</v>
+        <v>-0.0224492978304624</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0074830991216003</v>
+        <v>0.0106901414692401</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0119118718430399</v>
+        <v>0.0164933614432811</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.022754730656743</v>
+        <v>-0.0187841057777404</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2061670273542404</v>
+        <v>-0.0056505035609006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06368270516395561</v>
+        <v>0.0255036242306232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0487165041267871</v>
+        <v>-0.008552113547921099</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2628247737884521</v>
+        <v>-0.001527163083665</v>
       </c>
       <c r="C6" t="n">
-        <v>0.072998397052288</v>
+        <v>0.0328340083360672</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.0171042270958423</v>
+        <v>-0.0219911485910415</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4222606122493744</v>
+        <v>-0.0158824957907199</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0635299831628799</v>
+        <v>0.0395535230636596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0972802937030792</v>
+        <v>-0.0251981914043426</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4360050559043884</v>
+        <v>0.0255036242306232</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2139555513858795</v>
+        <v>-0.0038179077673703</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.0091629782691597</v>
+        <v>0.01328631862998</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0555887371301651</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3749185502529144</v>
+        <v>-0.0119118718430399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0091629782691597</v>
+        <v>-0.022754730656743</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0584903471171855</v>
+        <v>-0.2061670273542404</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1916589736938476</v>
+        <v>0.06368270516395561</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.408974289894104</v>
+        <v>-0.0487165041267871</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4970915913581848</v>
+        <v>-0.2628247737884521</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3481931984424591</v>
+        <v>0.072998397052288</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.9280570149421692</v>
+        <v>-0.0171042270958423</v>
       </c>
       <c r="B12" t="n">
-        <v>2.348929643630981</v>
+        <v>-0.4222606122493744</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.768275022506714</v>
+        <v>0.0635299831628799</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.9198103547096252</v>
+        <v>0.0972802937030792</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2131919711828231</v>
+        <v>-0.4360050559043884</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3013092875480652</v>
+        <v>0.2139555513858795</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.151633739471436</v>
+        <v>-0.0091629782691597</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.64531135559082</v>
+        <v>0.0555887371301651</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.316720008850098</v>
+        <v>0.3749185502529144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.4346306324005127</v>
+        <v>0.0091629782691597</v>
       </c>
       <c r="B15" t="n">
-        <v>7.040069103240967</v>
+        <v>0.0584903471171855</v>
       </c>
       <c r="C15" t="n">
-        <v>2.582127332687378</v>
+        <v>0.1916589736938476</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.09285151958465571</v>
+        <v>-0.408974289894104</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7751879692077637</v>
+        <v>0.4970915913581848</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1513418704271316</v>
+        <v>0.3481931984424591</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0221438650041818</v>
+        <v>-0.9280570149421692</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.3016147017478943</v>
+        <v>2.348929643630981</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1111774742603302</v>
+        <v>-3.768275022506714</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3016147017478943</v>
+        <v>-0.9198103547096252</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2246456891298294</v>
+        <v>0.2131919711828231</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0919352173805236</v>
+        <v>0.3013092875480652</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0120645882561802</v>
+        <v>1.151633739471436</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1030835136771202</v>
+        <v>-5.64531135559082</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1064432710409164</v>
+        <v>-1.316720008850098</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0125227374956011</v>
+        <v>-0.4346306324005127</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06261368840932841</v>
+        <v>7.040069103240967</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0209221355617046</v>
+        <v>2.582127332687378</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.09285151958465571</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7751879692077637</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.1513418704271316</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.0221438650041818</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.3016147017478943</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.1111774742603302</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.3016147017478943</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2246456891298294</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0919352173805236</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.0120645882561802</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1030835136771202</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1064432710409164</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.0125227374956011</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.06261368840932841</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.0209221355617046</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>-0.0786489024758338</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B26" t="n">
         <v>-0.0143553335219621</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C26" t="n">
         <v>-0.1611157059669494</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0029016099870204</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0401643887162208</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0038179077673703</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.0178678091615438</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0429132841527462</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.027030786499381</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.0041233403608202</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.0798706337809562</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.0476474873721599</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.0029016099870204</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0207694191485643</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0029016099870204</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.007177666760981</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0045814891345798</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0218384321779012</v>
       </c>
     </row>
   </sheetData>
